--- a/리볼트데이 버그 리포트19-02-02.xlsx
+++ b/리볼트데이 버그 리포트19-02-02.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="102">
   <si>
     <t>번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -234,10 +234,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>현상 이해 안됨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>확인</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -371,6 +367,66 @@
   </si>
   <si>
     <t>내정보 장면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 판매 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>판매 시스템 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내정보 장면(?)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타일 눌림 방지 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화면에 다른 화면에 떠있는 상태에서 타일이 눌리는 현상 제거</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>월드맵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 버프 사용 구분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 같은 종류는 더 높은 것만 사용 가능하도록 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내정보 장면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하늘철 티켓 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하늘철 사용 시 행동력 소모하지 않음 턴종료시 효과 사라짐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>월드맵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>디바이스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>디바이스</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -378,7 +434,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -425,8 +481,17 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -448,8 +513,13 @@
         <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -457,8 +527,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
@@ -467,6 +552,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -478,9 +566,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -517,10 +602,14 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="4" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="나쁨" xfId="1" builtinId="27"/>
     <cellStyle name="보통" xfId="3" builtinId="28"/>
+    <cellStyle name="셀 확인" xfId="4" builtinId="23"/>
     <cellStyle name="좋음" xfId="2" builtinId="26"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -803,123 +892,126 @@
   <dimension ref="A4:O42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9" style="5"/>
-    <col min="2" max="2" width="8.875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="21.25" style="5" customWidth="1"/>
-    <col min="4" max="4" width="98.125" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.625" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33.75" style="5" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="5"/>
+    <col min="1" max="1" width="9" style="4"/>
+    <col min="2" max="2" width="8.875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="21.25" style="4" customWidth="1"/>
+    <col min="4" max="4" width="98.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.75" style="4" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>59</v>
+      <c r="D4" s="4" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C5" s="6"/>
-      <c r="D5" s="6" t="s">
+      <c r="C5" s="5"/>
+      <c r="D5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-    </row>
-    <row r="11" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="2" t="s">
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+    </row>
+    <row r="10" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="1:15" s="2" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" s="15" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="10">
+    <row r="12" spans="1:15" s="2" customFormat="1" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="9">
         <v>1</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="F12" s="9" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="10">
+      <c r="B13" s="9">
         <v>2</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="E13" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F13" s="9" t="s">
-        <v>81</v>
+      <c r="F13" s="8" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="7"/>
-      <c r="B14" s="4">
+      <c r="A14" s="6"/>
+      <c r="B14" s="9">
         <v>3</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="E14" s="4"/>
-      <c r="F14" s="1" t="s">
-        <v>53</v>
+      <c r="E14" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>77</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
@@ -927,49 +1019,53 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="7"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
     </row>
     <row r="15" spans="1:15" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="7"/>
-      <c r="B15" s="10">
+      <c r="A15" s="6"/>
+      <c r="B15" s="9">
         <v>4</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="E15" s="10"/>
-      <c r="F15" s="15"/>
+      <c r="D15" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>77</v>
+      </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="7"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
     </row>
     <row r="16" spans="1:15" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="7"/>
-      <c r="B16" s="10">
+      <c r="A16" s="6"/>
+      <c r="B16" s="9">
         <v>5</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D16" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="E16" s="10" t="s">
+      <c r="E16" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="F16" s="15" t="s">
-        <v>82</v>
+      <c r="F16" s="14" t="s">
+        <v>81</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
@@ -977,22 +1073,22 @@
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
-      <c r="O16" s="4"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
     </row>
     <row r="17" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="7"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10" t="s">
+      <c r="A17" s="6"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E17" s="10" t="s">
+      <c r="E17" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="F17" s="15" t="s">
-        <v>82</v>
+      <c r="F17" s="14" t="s">
+        <v>81</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
@@ -1000,202 +1096,277 @@
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
     </row>
     <row r="18" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="7"/>
-      <c r="B18" s="3">
+      <c r="A18" s="6"/>
+      <c r="B18" s="11">
         <v>6</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="7"/>
-      <c r="O18" s="7"/>
+      <c r="F18" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
     </row>
     <row r="19" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="7"/>
-      <c r="B19" s="4">
+      <c r="A19" s="6"/>
+      <c r="B19" s="11">
         <v>7</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E19" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="F19" s="4"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="7"/>
-      <c r="N19" s="7"/>
-      <c r="O19" s="7"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
     </row>
     <row r="20" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="7"/>
-      <c r="B20" s="4">
+      <c r="A20" s="6"/>
+      <c r="B20" s="9">
         <v>8</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
+    </row>
+    <row r="21" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="6"/>
+      <c r="B21" s="9">
+        <v>9</v>
+      </c>
+      <c r="C21" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="D20" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E20" s="4" t="s">
+      <c r="D21" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E21" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="F20" s="4"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
-      <c r="M20" s="7"/>
-      <c r="N20" s="7"/>
-      <c r="O20" s="7"/>
-    </row>
-    <row r="21" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="7"/>
-      <c r="B21" s="10">
-        <v>9</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="E21" s="10" t="s">
+      <c r="F21" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="6"/>
+    </row>
+    <row r="22" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="6"/>
+      <c r="B22" s="9">
+        <v>10</v>
+      </c>
+      <c r="C22" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="F21" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7"/>
-      <c r="N21" s="7"/>
-      <c r="O21" s="7"/>
-    </row>
-    <row r="22" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="7"/>
-      <c r="B22" s="10">
-        <v>10</v>
-      </c>
-      <c r="C22" s="9" t="s">
+      <c r="D22" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="E22" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="6"/>
+    </row>
+    <row r="23" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="8">
+        <v>11</v>
+      </c>
+      <c r="C23" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="E22" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="F22" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="7"/>
-      <c r="M22" s="7"/>
-      <c r="N22" s="7"/>
-      <c r="O22" s="7"/>
-    </row>
-    <row r="23" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="9">
-        <v>11</v>
-      </c>
-      <c r="C23" s="9" t="s">
+      <c r="D23" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="D23" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="F23" s="9" t="s">
+      <c r="E23" s="8" t="s">
         <v>78</v>
       </c>
+      <c r="F23" s="8" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="24" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="2">
+      <c r="B24" s="10">
         <v>12</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="E24" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="F24" s="10"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B25" s="8">
+        <v>13</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="F25" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="E24" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B25" s="5">
-        <v>13</v>
-      </c>
-      <c r="C25" s="5" t="s">
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B26" s="8">
+        <v>14</v>
+      </c>
+      <c r="C26" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="D25" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="E25" s="5" t="s">
+      <c r="D26" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E26" s="8" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B26" s="5">
-        <v>14</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="E26" s="5" t="s">
+      <c r="F26" s="8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B27" s="10">
+        <v>15</v>
+      </c>
+      <c r="C27" s="10" t="s">
         <v>87</v>
       </c>
+      <c r="D27" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="F27" s="10"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B28" s="8">
+        <v>16</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B29" s="8">
+        <v>17</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B30" s="8">
+        <v>18</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="42" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D42" s="5" t="s">
+      <c r="D42" s="4" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1223,188 +1394,188 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="13">
+      <c r="A3" s="12">
         <v>1</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="11">
+      <c r="A4" s="10">
         <v>2</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="12" t="s">
-        <v>58</v>
+      <c r="E4" s="11" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="9">
+      <c r="A5" s="8">
         <v>3</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="10">
+        <v>4</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="10" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="11">
-        <v>4</v>
-      </c>
-      <c r="B6" s="12" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="12">
+        <v>5</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="12">
+        <v>6</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="8">
         <v>7</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="B9" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="8">
         <v>8</v>
       </c>
-      <c r="D6" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="13">
-        <v>5</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="13">
+      <c r="B10" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="8">
+        <v>9</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="8">
+        <v>10</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="8">
+        <v>11</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D13" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="9">
-        <v>7</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="9">
-        <v>8</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="9">
-        <v>9</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="9">
-        <v>10</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="9">
-        <v>11</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="C13" s="9" t="s">
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="8">
+        <v>12</v>
+      </c>
+      <c r="B14" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="D13" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="9">
-        <v>12</v>
-      </c>
-      <c r="B14" s="9" t="s">
+      <c r="C14" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="C14" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="8" t="s">
         <v>6</v>
       </c>
     </row>
